--- a/biology/Écologie/Yvon_Le_Maho/Yvon_Le_Maho.xlsx
+++ b/biology/Écologie/Yvon_Le_Maho/Yvon_Le_Maho.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yvon Le Maho (né le 7 septembre 1947 à Goderville[1]) est un écophysiologiste[2] français, directeur de recherche au CNRS à l'université de Strasbourg.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yvon Le Maho (né le 7 septembre 1947 à Goderville) est un écophysiologiste français, directeur de recherche au CNRS à l'université de Strasbourg.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est élu correspondant de l'Académie des Sciences le 22 mars 1993, puis membre (dans la section de Biologie intégrative) le 28 octobre 1996[3].
-Il a été impliqué dans le Grenelle de l'environnement[4] et a rédigé un rapport concernant le maïs OGM[5] dans lequel il exprime clairement son opposition aux OGM.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est élu correspondant de l'Académie des Sciences le 22 mars 1993, puis membre (dans la section de Biologie intégrative) le 28 octobre 1996.
+Il a été impliqué dans le Grenelle de l'environnement et a rédigé un rapport concernant le maïs OGM dans lequel il exprime clairement son opposition aux OGM.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) « Ecophysiology: Nature and function », Nature 416, 21 (2002)
 En collaboration
